--- a/backend/portfolio.xlsx
+++ b/backend/portfolio.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="13920"/>
+    <workbookView windowWidth="29400" windowHeight="13320"/>
   </bookViews>
   <sheets>
     <sheet name="Priyanshu" sheetId="1" r:id="rId1"/>
@@ -202,7 +202,7 @@
     <t xml:space="preserve">Tanla </t>
   </si>
   <si>
-    <t xml:space="preserve">Consumer </t>
+    <t>Consumer Sector</t>
   </si>
   <si>
     <t>Dmart</t>
@@ -220,7 +220,7 @@
     <t>Pidilite</t>
   </si>
   <si>
-    <t>Power</t>
+    <t>Power Sector</t>
   </si>
   <si>
     <t>Tata Power</t>
@@ -1855,7 +1855,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1">
-    <tableStyle name="Priyanshu-style" pivot="0" count="4" xr9:uid="{5A4D0A5A-389C-38D3-616C-82688D48DA04}">
+    <tableStyle name="Priyanshu-style" pivot="0" count="4" xr9:uid="{53FEB89D-3D48-FEC9-0228-8368EF06920B}">
       <tableStyleElement type="headerRow" dxfId="7"/>
       <tableStyleElement type="totalRow" dxfId="6"/>
       <tableStyleElement type="firstRowStripe" dxfId="5"/>
@@ -2126,11 +2126,11 @@
   <dimension ref="A1:AI969"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="$A1:$XFD1"/>
+      <selection pane="bottomRight" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="15.75" customHeight="1"/>
